--- a/REVER_DailyTracker_20200505.xlsx
+++ b/REVER_DailyTracker_20200505.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mujib\OneDrive\Desktop\Daily Tracking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\DailyTracker-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B57E76A-693F-4EB4-B213-46B8E7D68836}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7AC972-3AC3-4F89-87A0-6D76456486FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="Rahman" sheetId="14" r:id="rId9"/>
     <sheet name="Mathes" sheetId="13" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="181029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="21">
   <si>
     <t>Task</t>
   </si>
@@ -72,10 +72,37 @@
     <t>% of completion</t>
   </si>
   <si>
+    <t>RPA Dotnet</t>
+  </si>
+  <si>
+    <t>[Backend] CRM</t>
+  </si>
+  <si>
     <t>Hold</t>
   </si>
   <si>
-    <t>Excel macro program</t>
+    <t>DotnetAPP</t>
+  </si>
+  <si>
+    <t>Loginpage (Frontend)</t>
+  </si>
+  <si>
+    <t>Following the discussion, we have to decided to have few more tables for the CRM which is in Progress, and also decided to  remove four columns at CusteorDetails and also at CustomerRequestData tables based on your suggestion.</t>
+  </si>
+  <si>
+    <t>MujiStore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MujiStore - Authorization for Stores video </t>
+  </si>
+  <si>
+    <t>RPA-SALE</t>
+  </si>
+  <si>
+    <t>Video Management - Create,view,update,delete</t>
+  </si>
+  <si>
+    <t>PPT Management - Create,view,update,delete</t>
   </si>
 </sst>
 </file>
@@ -568,19 +595,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E5FA210-E74C-4956-984B-F79AD1DC1D90}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -604,14 +631,28 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="20" customFormat="1" ht="28.95" customHeight="1">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="19"/>
+    <row r="2" spans="1:7" s="20" customFormat="1" ht="28.9" customHeight="1">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16">
+        <v>43950</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1"/>
@@ -664,7 +705,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -681,15 +722,15 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -775,7 +816,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -789,18 +830,18 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -826,13 +867,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.6">
-      <c r="A2" s="21"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="22"/>
+    <row r="2" spans="1:7" ht="15.75">
+      <c r="A2" s="21">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23">
+        <v>43951</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>3</v>
+      </c>
       <c r="G2" s="21"/>
     </row>
     <row r="3" spans="1:7">
@@ -886,7 +939,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -903,15 +956,15 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -997,7 +1050,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1014,15 +1067,15 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1108,7 +1161,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1122,18 +1175,18 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1160,12 +1213,24 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="14"/>
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>43950</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>5</v>
+      </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
@@ -1219,7 +1284,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1232,19 +1297,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E19C8D-58A2-48BE-81ED-4B005621A3AA}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1271,22 +1336,46 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
+      <c r="A2" s="21">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23">
+        <v>43955</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="24">
+        <v>0.95</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="21"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="1"/>
+      <c r="A3" s="21">
+        <v>2</v>
+      </c>
+      <c r="B3" s="23">
+        <v>43956</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="24">
+        <v>0.9</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="21"/>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1"/>
     <row r="5" spans="1:7" s="4" customFormat="1"/>
@@ -1330,7 +1419,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1347,15 +1436,15 @@
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1441,7 +1530,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1458,15 +1547,15 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1552,7 +1641,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1563,21 +1652,21 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629DA847-E656-4D9F-9186-EF9F1F645789}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1604,19 +1693,11 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>43956</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0.8</v>
-      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
@@ -1644,33 +1725,34 @@
     <row r="16" spans="1:7" s="4" customFormat="1"/>
     <row r="17" spans="2:3" s="4" customFormat="1"/>
     <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="21" spans="2:3">
-      <c r="C21" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
     <row r="22" spans="2:3">
-      <c r="B22" s="8"/>
-      <c r="C22" t="s">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="9"/>
-      <c r="C23" t="s">
+    <row r="24" spans="2:3">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="10"/>
-      <c r="C24" t="s">
+    <row r="25" spans="2:3">
+      <c r="B25" s="10"/>
+      <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="11"/>
-      <c r="C25" t="s">
-        <v>10</v>
+    <row r="26" spans="2:3">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/REVER_DailyTracker_20200505.xlsx
+++ b/REVER_DailyTracker_20200505.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\DailyTracker-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7AC972-3AC3-4F89-87A0-6D76456486FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952115D9-E378-4C4D-8E03-397722AD2140}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="Rahman" sheetId="14" r:id="rId9"/>
     <sheet name="Mathes" sheetId="13" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="181029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="14">
   <si>
     <t>Task</t>
   </si>
@@ -72,37 +72,16 @@
     <t>% of completion</t>
   </si>
   <si>
-    <t>RPA Dotnet</t>
-  </si>
-  <si>
-    <t>[Backend] CRM</t>
-  </si>
-  <si>
     <t>Hold</t>
   </si>
   <si>
-    <t>DotnetAPP</t>
-  </si>
-  <si>
-    <t>Loginpage (Frontend)</t>
-  </si>
-  <si>
-    <t>Following the discussion, we have to decided to have few more tables for the CRM which is in Progress, and also decided to  remove four columns at CusteorDetails and also at CustomerRequestData tables based on your suggestion.</t>
+    <t>Excel macro program</t>
   </si>
   <si>
     <t>MujiStore</t>
   </si>
   <si>
     <t xml:space="preserve">MujiStore - Authorization for Stores video </t>
-  </si>
-  <si>
-    <t>RPA-SALE</t>
-  </si>
-  <si>
-    <t>Video Management - Create,view,update,delete</t>
-  </si>
-  <si>
-    <t>PPT Management - Create,view,update,delete</t>
   </si>
 </sst>
 </file>
@@ -233,7 +212,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -270,7 +249,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -595,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E5FA210-E74C-4956-984B-F79AD1DC1D90}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -632,27 +610,13 @@
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" s="20" customFormat="1" ht="28.9" customHeight="1">
-      <c r="A2" s="15">
-        <v>1</v>
-      </c>
-      <c r="B2" s="16">
-        <v>43950</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="17">
-        <v>0.3</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>15</v>
-      </c>
+      <c r="A2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="19"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1"/>
@@ -705,7 +669,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -816,7 +780,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -829,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A209DB9-CDA9-4C50-85C1-A0ADA7185189}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -871,20 +835,20 @@
       <c r="A2" s="21">
         <v>1</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="22">
         <v>43951</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="23">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="G2" s="21"/>
     </row>
@@ -939,7 +903,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1050,7 +1014,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1161,7 +1125,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1175,7 +1139,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1213,24 +1177,12 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>43950</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="7">
-        <v>1</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>5</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="14"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
@@ -1284,7 +1236,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1297,8 +1249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E19C8D-58A2-48BE-81ED-4B005621A3AA}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1336,46 +1288,22 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="21">
-        <v>1</v>
-      </c>
-      <c r="B2" s="23">
-        <v>43955</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="24">
-        <v>0.95</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="21"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="21">
-        <v>2</v>
-      </c>
-      <c r="B3" s="23">
-        <v>43956</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="24">
-        <v>0.9</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="21"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1"/>
     <row r="5" spans="1:7" s="4" customFormat="1"/>
@@ -1419,7 +1347,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1530,7 +1458,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1641,7 +1569,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1652,17 +1580,17 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629DA847-E656-4D9F-9186-EF9F1F645789}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.140625" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="44.7109375" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" customWidth="1"/>
     <col min="6" max="6" width="18.140625" customWidth="1"/>
@@ -1693,11 +1621,19 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>43956</v>
+      </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
+      <c r="D2" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.8</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
@@ -1725,34 +1661,33 @@
     <row r="16" spans="1:7" s="4" customFormat="1"/>
     <row r="17" spans="2:3" s="4" customFormat="1"/>
     <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="21" spans="2:3">
+      <c r="C21" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="22" spans="2:3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
+      <c r="B22" s="8"/>
+      <c r="C22" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="2:3">
-      <c r="B23" s="8"/>
+      <c r="B23" s="9"/>
       <c r="C23" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="2:3">
-      <c r="B24" s="9"/>
+      <c r="B24" s="10"/>
       <c r="C24" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="2:3">
-      <c r="B25" s="10"/>
+      <c r="B25" s="11"/>
       <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/REVER_DailyTracker_20200505.xlsx
+++ b/REVER_DailyTracker_20200505.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monisha\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952115D9-E378-4C4D-8E03-397722AD2140}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0779193-22EF-46D7-81B2-ACC32F6A8A4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -24,23 +24,17 @@
     <sheet name="Rahman" sheetId="14" r:id="rId9"/>
     <sheet name="Mathes" sheetId="13" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="25">
   <si>
     <t>Task</t>
   </si>
@@ -72,16 +66,50 @@
     <t>% of completion</t>
   </si>
   <si>
+    <t>RPA Dotnet</t>
+  </si>
+  <si>
+    <t>[Backend] CRM</t>
+  </si>
+  <si>
     <t>Hold</t>
   </si>
   <si>
-    <t>Excel macro program</t>
+    <t>DotnetAPP</t>
+  </si>
+  <si>
+    <t>Loginpage (Frontend)</t>
+  </si>
+  <si>
+    <t>Tables are created at RPA Sale database, whereas relationship is penidng, after discussing with Mr Bharathi san, it will be over,
+if any changes or modification can be done.</t>
+  </si>
+  <si>
+    <t>29/04/2020</t>
+  </si>
+  <si>
+    <t>Rever B2C</t>
+  </si>
+  <si>
+    <t>IF full flow with technician tracking integration</t>
+  </si>
+  <si>
+    <t>APK sent.</t>
   </si>
   <si>
     <t>MujiStore</t>
   </si>
   <si>
     <t xml:space="preserve">MujiStore - Authorization for Stores video </t>
+  </si>
+  <si>
+    <t>Hayaai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Website design- Business page </t>
+  </si>
+  <si>
+    <t>Website design- Contact page &amp; Business page popup</t>
   </si>
 </sst>
 </file>
@@ -212,7 +240,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -248,18 +276,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{2512DF26-B669-4CBF-AE6E-9B7A27AFDDD5}"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{91AE6805-01E8-42B9-BB81-A87FD24491E0}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -570,22 +594,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E5FA210-E74C-4956-984B-F79AD1DC1D90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -609,14 +633,28 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="20" customFormat="1" ht="28.9" customHeight="1">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="19"/>
+    <row r="2" spans="1:7" s="20" customFormat="1" ht="28.95" customHeight="1">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16">
+        <v>43950</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1"/>
@@ -669,7 +707,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -679,22 +717,22 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D97F208-7046-4CD3-9A69-1B907A35455F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -721,13 +759,27 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1"/>
@@ -780,7 +832,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -790,22 +842,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A209DB9-CDA9-4C50-85C1-A0ADA7185189}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -831,34 +883,46 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75">
-      <c r="A2" s="21">
-        <v>1</v>
-      </c>
-      <c r="B2" s="22">
+    <row r="2" spans="1:7" ht="15.6">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>43950</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.6">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
         <v>43951</v>
       </c>
-      <c r="C2" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="23">
-        <v>1</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="21"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1"/>
@@ -903,7 +967,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -913,22 +977,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B046864B-E8B4-4B7E-A91C-A0C80AD7F78D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1014,7 +1078,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1024,22 +1088,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C523E988-B9D6-4503-8511-E851FE3ED345}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1125,7 +1189,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1135,22 +1199,177 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32E0A3B-4CCA-47FE-89FF-779CF7651DEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>43950</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="22">
+        <v>43955</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="22">
+        <v>43956</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="10"/>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1182,7 +1401,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="7"/>
-      <c r="F2" s="14"/>
+      <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
@@ -1236,7 +1455,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1245,23 +1464,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E19C8D-58A2-48BE-81ED-4B005621A3AA}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1347,7 +1566,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1356,23 +1575,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5621F7FF-E06F-434B-89A6-3866EAA4F4E8}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="E14:F16"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1458,7 +1677,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1467,23 +1686,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED552E3A-902C-4700-B21A-33FAAF526D17}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1569,125 +1788,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629DA847-E656-4D9F-9186-EF9F1F645789}">
-  <dimension ref="A1:G25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>43956</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="21" spans="2:3">
-      <c r="C21" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="8"/>
-      <c r="C22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="9"/>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="10"/>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="11"/>
-      <c r="C25" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/REVER_DailyTracker_20200505.xlsx
+++ b/REVER_DailyTracker_20200505.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monisha\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0779193-22EF-46D7-81B2-ACC32F6A8A4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180B0272-4F39-4D3F-AD57-1EDFEAD4E798}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -24,17 +24,23 @@
     <sheet name="Rahman" sheetId="14" r:id="rId9"/>
     <sheet name="Mathes" sheetId="13" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="18">
   <si>
     <t>Task</t>
   </si>
@@ -81,35 +87,17 @@
     <t>Loginpage (Frontend)</t>
   </si>
   <si>
-    <t>Tables are created at RPA Sale database, whereas relationship is penidng, after discussing with Mr Bharathi san, it will be over,
-if any changes or modification can be done.</t>
-  </si>
-  <si>
-    <t>29/04/2020</t>
-  </si>
-  <si>
-    <t>Rever B2C</t>
-  </si>
-  <si>
-    <t>IF full flow with technician tracking integration</t>
-  </si>
-  <si>
-    <t>APK sent.</t>
-  </si>
-  <si>
-    <t>MujiStore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MujiStore - Authorization for Stores video </t>
-  </si>
-  <si>
-    <t>Hayaai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Website design- Business page </t>
-  </si>
-  <si>
-    <t>Website design- Contact page &amp; Business page popup</t>
+    <t xml:space="preserve">1. CRM Table is created for the News Letter type
+2. email id are fetched from the database based on condition of either existisng customer or general customer type and displayed to the textarea,
+3,some onchange events to be implemented to select customer type and based on that email id will be fetched from the databas and placed in the textarea is in progress
+</t>
+  </si>
+  <si>
+    <t>4. Purely  Excel Macro has been developed to create a header.csv file for the japanese language
+5. replaceall macro has been developed To remove emspace characters in japanese text</t>
+  </si>
+  <si>
+    <t>Excel macros</t>
   </si>
 </sst>
 </file>
@@ -119,7 +107,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,22 +128,6 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -234,13 +206,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -276,14 +245,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{91AE6805-01E8-42B9-BB81-A87FD24491E0}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -594,25 +561,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E5FA210-E74C-4956-984B-F79AD1DC1D90}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
     <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -633,7 +600,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="20" customFormat="1" ht="28.95" customHeight="1">
+    <row r="2" spans="1:7" s="20" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -656,7 +623,122 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="10"/>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D97F208-7046-4CD3-9A69-1B907A35455F}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -665,46 +747,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>
@@ -716,26 +798,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A209DB9-CDA9-4C50-85C1-A0ADA7185189}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -758,30 +840,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="7">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -790,181 +858,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.6">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>43950</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.6">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6">
-        <v>43951</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>
@@ -977,25 +910,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B046864B-E8B4-4B7E-A91C-A0C80AD7F78D}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1018,7 +951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1027,7 +960,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1036,46 +969,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>
@@ -1088,25 +1021,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C523E988-B9D6-4503-8511-E851FE3ED345}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1129,7 +1062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1138,7 +1071,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1147,46 +1080,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>
@@ -1199,25 +1132,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32E0A3B-4CCA-47FE-89FF-779CF7651DEC}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1240,7 +1173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1261,87 +1194,55 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="22">
-        <v>43955</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="7">
-        <v>1</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>5</v>
-      </c>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="22">
-        <v>43956</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>
@@ -1354,25 +1255,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E19C8D-58A2-48BE-81ED-4B005621A3AA}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1395,7 +1296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1404,7 +1305,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1413,46 +1314,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>
@@ -1465,25 +1366,25 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5621F7FF-E06F-434B-89A6-3866EAA4F4E8}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1506,7 +1407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1515,7 +1416,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1524,46 +1425,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>
@@ -1576,25 +1477,25 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED552E3A-902C-4700-B21A-33FAAF526D17}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1617,7 +1518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1626,7 +1527,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1635,46 +1536,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>
@@ -1687,25 +1588,25 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629DA847-E656-4D9F-9186-EF9F1F645789}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1728,7 +1629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1737,7 +1638,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1746,46 +1647,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>

--- a/REVER_DailyTracker_20200505.xlsx
+++ b/REVER_DailyTracker_20200505.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MVS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180B0272-4F39-4D3F-AD57-1EDFEAD4E798}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859EC07C-EBDF-4184-8892-FBDC7531CD9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="20">
   <si>
     <t>Task</t>
   </si>
@@ -98,6 +98,12 @@
   </si>
   <si>
     <t>Excel macros</t>
+  </si>
+  <si>
+    <t>OBIC-macro</t>
+  </si>
+  <si>
+    <t>Trying to create csv file with help of macro</t>
   </si>
 </sst>
 </file>
@@ -564,7 +570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E5FA210-E74C-4956-984B-F79AD1DC1D90}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -1024,8 +1030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C523E988-B9D6-4503-8511-E851FE3ED345}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1064,11 +1070,21 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
+      <c r="B2" s="6">
+        <v>43956</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">

--- a/REVER_DailyTracker_20200505.xlsx
+++ b/REVER_DailyTracker_20200505.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859EC07C-EBDF-4184-8892-FBDC7531CD9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -24,9 +18,9 @@
     <sheet name="Rahman" sheetId="14" r:id="rId9"/>
     <sheet name="Mathes" sheetId="13" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519" iterate="1"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="23">
   <si>
     <t>Task</t>
   </si>
@@ -105,15 +99,24 @@
   <si>
     <t>Trying to create csv file with help of macro</t>
   </si>
+  <si>
+    <t>RPA_Sales</t>
+  </si>
+  <si>
+    <t>[Back End]  Page Management</t>
+  </si>
+  <si>
+    <t>wip</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,7 +317,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -366,7 +369,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -560,32 +563,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E5FA210-E74C-4956-984B-F79AD1DC1D90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -606,7 +609,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="20" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="20" customFormat="1" ht="126" customHeight="1">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -629,7 +632,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="42" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -642,46 +645,46 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>
@@ -694,25 +697,25 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D97F208-7046-4CD3-9A69-1B907A35455F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -735,7 +738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -744,7 +747,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -753,46 +756,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>
@@ -805,25 +808,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A209DB9-CDA9-4C50-85C1-A0ADA7185189}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -846,7 +849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -855,7 +858,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -864,46 +867,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>
@@ -916,25 +919,148 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B046864B-E8B4-4B7E-A91C-A0C80AD7F78D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>43956</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="10"/>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -957,7 +1083,251 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6">
+        <v>43956</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="10"/>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>43950</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="10"/>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -966,7 +1336,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -975,46 +1345,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>
@@ -1026,26 +1396,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C523E988-B9D6-4503-8511-E851FE3ED345}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1068,26 +1438,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
-      <c r="B2" s="6">
-        <v>43956</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1096,46 +1456,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>
@@ -1147,26 +1507,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32E0A3B-4CCA-47FE-89FF-779CF7651DEC}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1189,28 +1549,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>43950</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="7">
-        <v>1</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>5</v>
-      </c>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1219,46 +1567,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>
@@ -1270,26 +1618,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E19C8D-58A2-48BE-81ED-4B005621A3AA}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1312,7 +1660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1321,7 +1669,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1330,379 +1678,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5621F7FF-E06F-434B-89A6-3866EAA4F4E8}">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="E14:F16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED552E3A-902C-4700-B21A-33FAAF526D17}">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629DA847-E656-4D9F-9186-EF9F1F645789}">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>

--- a/REVER_DailyTracker_20200505.xlsx
+++ b/REVER_DailyTracker_20200505.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rever\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05B2B13-DA52-4ADC-9E4C-D5840DD0B1AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -18,23 +24,17 @@
     <sheet name="Rahman" sheetId="14" r:id="rId9"/>
     <sheet name="Mathes" sheetId="13" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="124519" iterate="1"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="28">
   <si>
     <t>Task</t>
   </si>
@@ -81,42 +81,54 @@
     <t>Loginpage (Frontend)</t>
   </si>
   <si>
-    <t xml:space="preserve">1. CRM Table is created for the News Letter type
-2. email id are fetched from the database based on condition of either existisng customer or general customer type and displayed to the textarea,
-3,some onchange events to be implemented to select customer type and based on that email id will be fetched from the databas and placed in the textarea is in progress
-</t>
-  </si>
-  <si>
-    <t>4. Purely  Excel Macro has been developed to create a header.csv file for the japanese language
-5. replaceall macro has been developed To remove emspace characters in japanese text</t>
-  </si>
-  <si>
-    <t>Excel macros</t>
-  </si>
-  <si>
-    <t>OBIC-macro</t>
-  </si>
-  <si>
-    <t>Trying to create csv file with help of macro</t>
-  </si>
-  <si>
-    <t>RPA_Sales</t>
-  </si>
-  <si>
-    <t>[Back End]  Page Management</t>
-  </si>
-  <si>
-    <t>wip</t>
+    <t>Tables are created at RPA Sale database, whereas relationship is penidng, after discussing with Mr Bharathi san, it will be over,
+if any changes or modification can be done.</t>
+  </si>
+  <si>
+    <t>29/04/2020</t>
+  </si>
+  <si>
+    <t>Rever B2C</t>
+  </si>
+  <si>
+    <t>IF full flow with technician tracking integration</t>
+  </si>
+  <si>
+    <t>APK sent.</t>
+  </si>
+  <si>
+    <t>MujiStore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MujiStore - Authorization for Stores video </t>
+  </si>
+  <si>
+    <t>Hayaai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Website design- Business page </t>
+  </si>
+  <si>
+    <t>Website design- Contact page &amp; Business page popup</t>
+  </si>
+  <si>
+    <t>DOTNET APP</t>
+  </si>
+  <si>
+    <t>Video</t>
+  </si>
+  <si>
+    <t>Presentation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +149,22 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -215,10 +243,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -254,12 +285,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{91AE6805-01E8-42B9-BB81-A87FD24491E0}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -317,7 +353,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -369,7 +405,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -563,29 +599,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -609,7 +645,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="20" customFormat="1" ht="126" customHeight="1">
+    <row r="2" spans="1:7" s="20" customFormat="1" ht="28.95" customHeight="1">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -631,121 +667,6 @@
       <c r="G2" s="19" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="42" customHeight="1">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1"/>
@@ -807,23 +728,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -850,13 +771,27 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1"/>
@@ -918,23 +853,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -960,34 +895,46 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="15.6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="6">
-        <v>43956</v>
+        <v>43950</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="21" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="7">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
+    <row r="3" spans="1:7" ht="15.6">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>43951</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1"/>
@@ -1041,23 +988,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1085,21 +1032,11 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1"/>
-      <c r="B2" s="6">
-        <v>43956</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
@@ -1162,23 +1099,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1205,24 +1142,12 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>43950</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="7">
-        <v>1</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>5</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
@@ -1285,23 +1210,178 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>43950</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="22">
+        <v>43955</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="22">
+        <v>43956</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="10"/>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1397,22 +1477,198 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>43951</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="22">
+        <v>43955</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="22">
+        <v>43955</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="22">
+        <v>43956</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="20" spans="2:3" s="4" customFormat="1"/>
+    <row r="23" spans="2:3">
+      <c r="C23" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="8"/>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="9"/>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="10"/>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" s="11"/>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="E14:F16"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1507,23 +1763,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1616,115 +1872,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/REVER_DailyTracker_20200505.xlsx
+++ b/REVER_DailyTracker_20200505.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rever\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\DailyTracker-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05B2B13-DA52-4ADC-9E4C-D5840DD0B1AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478737AD-C083-45C4-8C16-45E441CB0020}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -24,17 +24,23 @@
     <sheet name="Rahman" sheetId="14" r:id="rId9"/>
     <sheet name="Mathes" sheetId="13" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="181029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="22">
   <si>
     <t>Task</t>
   </si>
@@ -81,20 +87,7 @@
     <t>Loginpage (Frontend)</t>
   </si>
   <si>
-    <t>Tables are created at RPA Sale database, whereas relationship is penidng, after discussing with Mr Bharathi san, it will be over,
-if any changes or modification can be done.</t>
-  </si>
-  <si>
-    <t>29/04/2020</t>
-  </si>
-  <si>
-    <t>Rever B2C</t>
-  </si>
-  <si>
-    <t>IF full flow with technician tracking integration</t>
-  </si>
-  <si>
-    <t>APK sent.</t>
+    <t>Following the discussion, we have to decided to have few more tables for the CRM which is in Progress, and also decided to  remove four columns at CusteorDetails and also at CustomerRequestData tables based on your suggestion.</t>
   </si>
   <si>
     <t>MujiStore</t>
@@ -103,22 +96,16 @@
     <t xml:space="preserve">MujiStore - Authorization for Stores video </t>
   </si>
   <si>
-    <t>Hayaai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Website design- Business page </t>
-  </si>
-  <si>
-    <t>Website design- Contact page &amp; Business page popup</t>
-  </si>
-  <si>
-    <t>DOTNET APP</t>
-  </si>
-  <si>
-    <t>Video</t>
-  </si>
-  <si>
-    <t>Presentation</t>
+    <t>RPA-SALE</t>
+  </si>
+  <si>
+    <t>Video Management - Create,view,update,delete</t>
+  </si>
+  <si>
+    <t>PPT Management - Create,view,update,delete</t>
+  </si>
+  <si>
+    <t>SAMPLE SSRS Report Generation</t>
   </si>
 </sst>
 </file>
@@ -249,7 +236,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -285,17 +272,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{91AE6805-01E8-42B9-BB81-A87FD24491E0}"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{2512DF26-B669-4CBF-AE6E-9B7A27AFDDD5}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -606,22 +595,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E5FA210-E74C-4956-984B-F79AD1DC1D90}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -645,7 +634,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="20" customFormat="1" ht="28.95" customHeight="1">
+    <row r="2" spans="1:7" s="20" customFormat="1" ht="28.9" customHeight="1">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -729,22 +718,22 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D97F208-7046-4CD3-9A69-1B907A35455F}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -771,27 +760,13 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="7">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1"/>
@@ -854,22 +829,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A209DB9-CDA9-4C50-85C1-A0ADA7185189}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -895,46 +870,34 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.6">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>43950</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="F2" s="3" t="s">
+    <row r="2" spans="1:7" ht="15.75">
+      <c r="A2" s="21">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23">
+        <v>43951</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.6">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6">
-        <v>43951</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="G2" s="21"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1"/>
@@ -989,22 +952,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B046864B-E8B4-4B7E-A91C-A0C80AD7F78D}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1100,22 +1063,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C523E988-B9D6-4503-8511-E851FE3ED345}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1211,22 +1174,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32E0A3B-4CCA-47FE-89FF-779CF7651DEC}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G4"/>
+      <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1271,149 +1234,6 @@
       <c r="F2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="22">
-        <v>43955</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="7">
-        <v>1</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="22">
-        <v>43956</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
@@ -1476,23 +1296,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:G27"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E19C8D-58A2-48BE-81ED-4B005621A3AA}">
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1519,89 +1339,69 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>43951</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="A2" s="21">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23">
+        <v>43955</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="24">
+        <v>0.95</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="21"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1">
+      <c r="A3" s="21">
         <v>2</v>
       </c>
-      <c r="B3" s="22">
-        <v>43955</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="22">
-        <v>43955</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="B3" s="23">
+        <v>43956</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="24">
+        <v>0.9</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1">
-      <c r="A5" s="1">
+      <c r="G3" s="21"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="22">
-        <v>43956</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0.45</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="B4" s="23">
+        <v>43957</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="1"/>
-    </row>
+      <c r="G4" s="21"/>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
     <row r="6" spans="1:7" s="4" customFormat="1"/>
     <row r="7" spans="1:7" s="4" customFormat="1"/>
     <row r="8" spans="1:7" s="4" customFormat="1"/>
@@ -1616,33 +1416,32 @@
     <row r="17" spans="2:3" s="4" customFormat="1"/>
     <row r="18" spans="2:3" s="4" customFormat="1"/>
     <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="20" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="23" spans="2:3">
-      <c r="C23" s="12" t="s">
-        <v>1</v>
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="2:3">
-      <c r="B24" s="8"/>
+      <c r="B24" s="9"/>
       <c r="C24" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="2:3">
-      <c r="B25" s="9"/>
+      <c r="B25" s="10"/>
       <c r="C25" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="2:3">
-      <c r="B26" s="10"/>
+      <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3">
-      <c r="B27" s="11"/>
-      <c r="C27" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1652,23 +1451,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5621F7FF-E06F-434B-89A6-3866EAA4F4E8}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1763,23 +1562,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED552E3A-902C-4700-B21A-33FAAF526D17}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1872,4 +1671,115 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629DA847-E656-4D9F-9186-EF9F1F645789}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="10"/>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/REVER_DailyTracker_20200505.xlsx
+++ b/REVER_DailyTracker_20200505.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\DailyTracker-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478737AD-C083-45C4-8C16-45E441CB0020}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D54BC3C-20E1-486A-9205-0295B8537F68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="21">
   <si>
     <t>Task</t>
   </si>
@@ -97,9 +97,6 @@
   </si>
   <si>
     <t>RPA-SALE</t>
-  </si>
-  <si>
-    <t>Video Management - Create,view,update,delete</t>
   </si>
   <si>
     <t>PPT Management - Create,view,update,delete</t>
@@ -1301,7 +1298,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1352,7 +1349,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="24">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>3</v>
@@ -1370,13 +1367,13 @@
         <v>18</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="24">
-        <v>0.9</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="G3" s="21"/>
     </row>
@@ -1391,7 +1388,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="24">
         <v>0.8</v>
@@ -1401,7 +1398,27 @@
       </c>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="23">
+        <v>43958</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="24">
+        <v>1</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="21"/>
+    </row>
     <row r="6" spans="1:7" s="4" customFormat="1"/>
     <row r="7" spans="1:7" s="4" customFormat="1"/>
     <row r="8" spans="1:7" s="4" customFormat="1"/>
